--- a/torneos/list.xlsx
+++ b/torneos/list.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franc\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programación\GITHUB\xfrancool\xfrancool.github.io\torneos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F016AA-B1E6-4F99-9CCB-A3A6D178B741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A994BE6-9245-4E43-A3BA-B687D485CE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Checklist</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Trofeos</t>
   </si>
   <si>
-    <t>Impresora</t>
-  </si>
-  <si>
     <t>Compu y cargador</t>
   </si>
   <si>
@@ -76,6 +73,57 @@
   </si>
   <si>
     <t>Listo</t>
+  </si>
+  <si>
+    <t>Pava eléctrica</t>
+  </si>
+  <si>
+    <t>Azúcar</t>
+  </si>
+  <si>
+    <t>Mate / Té</t>
+  </si>
+  <si>
+    <t>Zapatilla</t>
+  </si>
+  <si>
+    <t>Transporte</t>
+  </si>
+  <si>
+    <t>Vasitos / Cuchara</t>
+  </si>
+  <si>
+    <t>Servilleta de papel</t>
+  </si>
+  <si>
+    <t>Pilas</t>
+  </si>
+  <si>
+    <t>Mouse / Pad</t>
+  </si>
+  <si>
+    <t>Teclado</t>
+  </si>
+  <si>
+    <t>Usb inalámbrico</t>
+  </si>
+  <si>
+    <t>Impresora / Tórner</t>
+  </si>
+  <si>
+    <t>Carpeta A4</t>
+  </si>
+  <si>
+    <t>Efectivo</t>
+  </si>
+  <si>
+    <t>Termo</t>
+  </si>
+  <si>
+    <t>c/ extra Impresora</t>
+  </si>
+  <si>
+    <t>Pan / Factura</t>
   </si>
 </sst>
 </file>
@@ -428,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,25 +492,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -479,7 +527,7 @@
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -491,7 +539,7 @@
     </row>
     <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -503,7 +551,7 @@
     </row>
     <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -515,7 +563,7 @@
     </row>
     <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -527,7 +575,7 @@
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -539,7 +587,7 @@
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -551,7 +599,7 @@
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -563,7 +611,7 @@
     </row>
     <row r="10" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -575,7 +623,7 @@
     </row>
     <row r="11" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -587,7 +635,7 @@
     </row>
     <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -599,7 +647,7 @@
     </row>
     <row r="13" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -611,7 +659,7 @@
     </row>
     <row r="14" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -623,7 +671,7 @@
     </row>
     <row r="15" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -635,7 +683,7 @@
     </row>
     <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -646,7 +694,9 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -656,7 +706,9 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+      <c r="A18" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -666,7 +718,9 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -676,7 +730,9 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -686,7 +742,9 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -696,7 +754,9 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -706,7 +766,9 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -716,7 +778,9 @@
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
+      <c r="A24" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -726,7 +790,9 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -736,7 +802,9 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
+      <c r="A26" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -746,7 +814,9 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="A27" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -756,7 +826,9 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+      <c r="A28" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -766,7 +838,9 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
+      <c r="A29" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -776,7 +850,9 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -786,7 +862,9 @@
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
+      <c r="A31" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -796,7 +874,9 @@
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
+      <c r="A32" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -935,6 +1015,52 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
+    <row r="46" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E53" t="str">
+        <f>+A23</f>
+        <v>Pava eléctrica</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/torneos/list.xlsx
+++ b/torneos/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programación\GITHUB\xfrancool\xfrancool.github.io\torneos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A994BE6-9245-4E43-A3BA-B687D485CE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C647CC-E936-4C53-AEB2-E8C27D051C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -476,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,14 +1055,8 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E53" t="str">
-        <f>+A23</f>
-        <v>Pava eléctrica</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>